--- a/municipal/დემოგრაფია/თვითმკვლელობის შედეგად სიკვილიანობის კოეფიციენტი/აბაშა.xlsx
+++ b/municipal/დემოგრაფია/თვითმკვლელობის შედეგად სიკვილიანობის კოეფიციენტი/აბაშა.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24228"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tgrigolishvili\Desktop\დამატება\cx 33\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gamashukeli\Desktop\გარდაცვალ. მიზეზები\+.-.თვითმკვლელობა\+თვითმკვლელობის სიკვდილის კოეფიციენტი\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C89AA6BA-F20C-402E-B4EB-4A584454F1EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="255" yWindow="120" windowWidth="12675" windowHeight="14850"/>
+    <workbookView xWindow="780" yWindow="780" windowWidth="27045" windowHeight="7785" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1" sheetId="1" r:id="rId1"/>
@@ -47,7 +48,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0.0"/>
   </numFmts>
@@ -128,7 +129,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -186,6 +187,15 @@
       <bottom style="medium">
         <color indexed="64"/>
       </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
       <diagonal/>
     </border>
   </borders>
@@ -233,15 +243,17 @@
     <xf numFmtId="164" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="5" xfId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="4" xfId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="2"/>
-    <cellStyle name="Normal_Mosaxleoba na 1.1 raionebis mixedvit" xfId="1"/>
+    <cellStyle name="Normal 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="Normal_Mosaxleoba na 1.1 raionebis mixedvit" xfId="1" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -518,8 +530,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D16"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:D18"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
@@ -614,26 +626,42 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="10">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="9">
         <v>2021</v>
       </c>
-      <c r="B12" s="16">
+      <c r="B12" s="15">
         <v>5.2</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A14" s="13" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A15" s="17" t="s">
-        <v>2</v>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" s="9">
+        <v>2022</v>
+      </c>
+      <c r="B13" s="16">
+        <v>10.6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="10">
+        <v>2023</v>
+      </c>
+      <c r="B14" s="17">
+        <v>11</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" s="13" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A17" s="13" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A18" s="13" t="s">
         <v>3</v>
       </c>
     </row>
